--- a/Excel/9A.xlsx
+++ b/Excel/9A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Amit\Code\React\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Amit\Code\React.git\trunk\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A895FA1-4986-4906-B643-902843B1B109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8000F702-8B2A-4674-8DDF-690523C6B303}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,108 +20,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>ABHINAV SAJITH</t>
-  </si>
-  <si>
-    <t>ABHINAV SHUKLA</t>
-  </si>
-  <si>
-    <t>ANANYA ARYA</t>
-  </si>
-  <si>
-    <t>ANI NAIK. A</t>
-  </si>
-  <si>
-    <t>ARADHANA JERUSHA</t>
-  </si>
-  <si>
-    <t>BHANUPRIYA N</t>
-  </si>
-  <si>
-    <t>DIVYANTH . H</t>
-  </si>
-  <si>
-    <t>GAGAN HITTAY. A</t>
-  </si>
-  <si>
-    <t>HAMSINI.K</t>
-  </si>
-  <si>
-    <t>HEMISH REDDY</t>
-  </si>
-  <si>
-    <t>JAI KUMAR SINGH</t>
-  </si>
-  <si>
-    <t>JOEL C. MANOJ</t>
-  </si>
-  <si>
-    <t>MEENU</t>
-  </si>
-  <si>
-    <t>MITHIL A.M</t>
-  </si>
-  <si>
-    <t>MOHAMMED  SAHIR</t>
-  </si>
-  <si>
-    <t>MOHAMMED EHSAN</t>
-  </si>
-  <si>
-    <t>P. DIVYA</t>
-  </si>
-  <si>
-    <t>PRANAV RAJU</t>
-  </si>
-  <si>
-    <t>PRATHAM. N</t>
-  </si>
-  <si>
-    <t>PUJWAL GOWDA.H</t>
-  </si>
-  <si>
-    <t>RAMCHANDRA NISHAD</t>
-  </si>
-  <si>
-    <t>RICHI KUMARI</t>
-  </si>
-  <si>
-    <t>SHARAN KUMAR R</t>
-  </si>
-  <si>
-    <t>SHREYA S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRADHA .M K </t>
-  </si>
-  <si>
-    <t>THEODORE THEEKSHATH</t>
-  </si>
-  <si>
-    <t>TRISHA GUPTA</t>
-  </si>
-  <si>
-    <t>VRISHALI SHETTY</t>
-  </si>
-  <si>
-    <t>MAANASA</t>
-  </si>
-  <si>
-    <t>BUVAN G S</t>
-  </si>
-  <si>
-    <t>SANTOSH .G</t>
-  </si>
-  <si>
-    <t>ALISON  ABSOLOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABHAAY BHARATH RAJ </t>
-  </si>
-  <si>
-    <t>DEEKSHITHA S</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>AAKANKSHA</t>
+  </si>
+  <si>
+    <t>ADISHESH.VS</t>
+  </si>
+  <si>
+    <t>AKHIL MANOJ</t>
+  </si>
+  <si>
+    <t>ANKEET KUMAR SHARMA</t>
+  </si>
+  <si>
+    <t>ANKUSH KUMAR TIWARI</t>
+  </si>
+  <si>
+    <t>ANKUSH SAHA</t>
+  </si>
+  <si>
+    <t>ASHWATHI B NAIR</t>
+  </si>
+  <si>
+    <t>FAMIDA YASN KHAN</t>
+  </si>
+  <si>
+    <t>HARI PRASAD</t>
+  </si>
+  <si>
+    <t>JANARDHANA G.</t>
+  </si>
+  <si>
+    <t>JAYESH K</t>
+  </si>
+  <si>
+    <t>K AALIYA ZEENATH</t>
+  </si>
+  <si>
+    <t>K VANSHIKA</t>
+  </si>
+  <si>
+    <t>KRITHIKA</t>
+  </si>
+  <si>
+    <t>MATHEWS SHERIN</t>
+  </si>
+  <si>
+    <t>N P SAHANA</t>
+  </si>
+  <si>
+    <t>N. VAIBHAV</t>
+  </si>
+  <si>
+    <t>PARINITHA RAJIV</t>
+  </si>
+  <si>
+    <t>PRASIO MARTIN</t>
+  </si>
+  <si>
+    <t>R.SHARUNYA SAI</t>
+  </si>
+  <si>
+    <t>RITIK BS</t>
+  </si>
+  <si>
+    <t>S SAM IMMANUEAL</t>
+  </si>
+  <si>
+    <t>SIDDARTHA B</t>
+  </si>
+  <si>
+    <t>SONAL.UT</t>
+  </si>
+  <si>
+    <t>TAPISH</t>
+  </si>
+  <si>
+    <t>TARUN GIRISH</t>
+  </si>
+  <si>
+    <t>YASHASVI. D</t>
+  </si>
+  <si>
+    <t>ZOYA FATHIMA</t>
+  </si>
+  <si>
+    <t>INAN SANYAL</t>
+  </si>
+  <si>
+    <t>MANAV  DHAKA</t>
   </si>
 </sst>
 </file>
@@ -172,29 +160,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -539,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,283 +525,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>19</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>23</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>24</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>26</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>28</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>30</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>31</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>32</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>33</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>34</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>33</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B34">
-    <cfRule type="duplicateValues" dxfId="1" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B32">
-    <cfRule type="duplicateValues" dxfId="0" priority="70"/>
+  <conditionalFormatting sqref="B1:B30">
+    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
